--- a/docs/PocketEvent.xlsx
+++ b/docs/PocketEvent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\PHP\TCG\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9BBADB-617C-4852-A957-15E96BDD7A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125CDAA3-3D7F-4A19-8E18-2B21830DD340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{14A9C256-7087-477C-B050-1E92D26F1741}"/>
+    <workbookView xWindow="8304" yWindow="1620" windowWidth="12600" windowHeight="8892" xr2:uid="{14A9C256-7087-477C-B050-1E92D26F1741}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -191,11 +191,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -532,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E6538A-4E82-4752-9CEB-2A88CA91422F}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,7 +576,7 @@
       </c>
       <c r="L1" s="1">
         <f ca="1">TODAY()</f>
-        <v>45609</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -600,7 +602,7 @@
       </c>
       <c r="G2" t="str">
         <f ca="1">IF(D2 &gt; $L$1, "Starts in " &amp; (D2-$L$1) &amp; "D", IF(E2 &gt; $L$1, "Ends in " &amp; (E2-$L$1) &amp; "D", "Ended"))</f>
-        <v>Ends in 2D</v>
+        <v>Ended</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -633,7 +635,7 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G5" ca="1" si="2">IF(D3 &gt; $L$1, "Starts in " &amp; (D3-$L$1) &amp; "D", IF(E3 &gt; $L$1, "Ends in " &amp; (E3-$L$1) &amp; "D", "Ended"))</f>
-        <v>Ends in 5D</v>
+        <v>Ended</v>
       </c>
       <c r="I3">
         <v>3</v>
@@ -665,7 +667,7 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ends in 15D</v>
+        <v>Ends in 3D</v>
       </c>
       <c r="I4">
         <v>4</v>
@@ -685,19 +687,19 @@
         <f t="shared" si="0"/>
         <v>Wonder Pick Event</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>45604</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>45611</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="5">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G5" s="3" t="str">
+      <c r="G5" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ends in 2D</v>
+        <v>Ended</v>
       </c>
       <c r="I5">
         <v>5</v>
@@ -707,13 +709,13 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>6</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Mission Event</v>
       </c>
@@ -729,7 +731,7 @@
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ref="G6:G15" ca="1" si="4">IF(D6 &gt; $L$1, "Starts in " &amp; (D6-$L$1) &amp; "D", IF(E6 &gt; $L$1, "Ends in " &amp; (E6-$L$1) &amp; "D", "Ended"))</f>
-        <v>Starts in 9D</v>
+        <v>Ends in 3D</v>
       </c>
       <c r="I6">
         <v>6</v>
@@ -749,19 +751,19 @@
         <f t="shared" si="0"/>
         <v>Mass Outbreak Event</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>45618</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>45624</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="5">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G7" s="3" t="str">
+      <c r="G7" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Starts in 9D</v>
+        <v>Ends in 3D</v>
       </c>
       <c r="I7">
         <v>7</v>
@@ -781,19 +783,19 @@
         <f t="shared" si="0"/>
         <v>Sale</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>45618</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>45628</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="G8" s="3" t="str">
+      <c r="G8" s="5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Starts in 9D</v>
+        <v>Ends in 7D</v>
       </c>
       <c r="I8">
         <v>8</v>
@@ -825,7 +827,7 @@
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Starts in 15D</v>
+        <v>Starts in 3D</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -851,7 +853,7 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Starts in 18D</v>
+        <v>Starts in 6D</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -877,7 +879,7 @@
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Starts in 23D</v>
+        <v>Starts in 11D</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -903,7 +905,7 @@
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Starts in 26D</v>
+        <v>Starts in 14D</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -929,7 +931,7 @@
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Starts in 30D</v>
+        <v>Starts in 18D</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -953,7 +955,7 @@
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Starts in 34D</v>
+        <v>Starts in 22D</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -977,7 +979,7 @@
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Starts in 78D</v>
+        <v>Starts in 66D</v>
       </c>
     </row>
   </sheetData>
@@ -991,7 +993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7B860D-015C-4385-BA4C-7AE07705E82F}">
   <dimension ref="A2:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1015,7 +1017,7 @@
       </c>
       <c r="B3">
         <f ca="1">IF(B2 = "", "", B2-TODAY())</f>
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1057,7 +1059,7 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f ca="1">"current projected wins: " &amp; (B7 + ((B3 - C6) * B8))</f>
-        <v>current projected wins: 50</v>
+        <v>current projected wins: 14</v>
       </c>
     </row>
   </sheetData>
